--- a/downloaded_files/CMPS454_Tutorial-35889.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35889.xlsx
@@ -195,15 +195,6 @@
     <x:t>Menna Salah Mohamed Alawadly</x:t>
   </x:si>
   <x:si>
-    <x:t>1210313</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210330</x:t>
   </x:si>
   <x:si>
@@ -211,6 +202,15 @@
   </x:si>
   <x:si>
     <x:t>Yusuf Ahmed El Sayed Ahmed Salama</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210383</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يوسف ايمن محمد يسرى عطيه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Yusuf Ayman Mohammad Yosry Ateyya</x:t>
   </x:si>
   <x:si>
     <x:t>1210343</x:t>
@@ -1302,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.6847547107</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>

--- a/downloaded_files/CMPS454_Tutorial-35889.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35889.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -31,15 +31,6 @@
   </x:si>
   <x:si>
     <x:t>Date</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>اسر تامر محمد وجدى محمد كامل</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asser Tamer Mohamed Wagdy</x:t>
   </x:si>
   <x:si>
     <x:t>1210097</x:t>
@@ -335,7 +326,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +626,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -726,7 +717,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45916.0158936343</x:v>
+        <x:v>45914.6878001505</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -758,7 +749,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.6878001505</x:v>
+        <x:v>45914.7007090278</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -790,7 +781,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.7007090278</x:v>
+        <x:v>45914.6949074884</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -822,7 +813,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.6949074884</x:v>
+        <x:v>45914.6896805903</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +845,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.6896805903</x:v>
+        <x:v>45914.6892113426</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +877,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.6892113426</x:v>
+        <x:v>45914.7002888079</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +909,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.7002888079</x:v>
+        <x:v>45914.6917645486</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +941,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.6917645486</x:v>
+        <x:v>45914.6953730324</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +973,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6953730324</x:v>
+        <x:v>45914.6874175926</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1005,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6874175926</x:v>
+        <x:v>45914.6867231829</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1037,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6867231829</x:v>
+        <x:v>45914.683959838</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1069,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.683959838</x:v>
+        <x:v>45914.6844145486</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1101,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.6844145486</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1133,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1165,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1197,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1229,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1261,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1293,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1325,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6945675579</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1351,38 +1342,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45914.6945675579</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35889.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35889.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -139,6 +139,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Nabil Elsayed Eltoukhy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220141</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود على عباس حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohmoud Ali Abas Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210301</x:t>
@@ -326,7 +335,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -626,7 +635,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1101,7 +1110,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1133,7 +1142,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1165,7 +1174,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1197,7 +1206,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1229,7 +1238,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1261,7 +1270,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1293,7 +1302,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1325,7 +1334,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6945675579</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1342,6 +1351,38 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
+    </x:row>
+    <x:row r="22" spans="1:20">
+      <x:c r="A22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E22" s="3">
+        <x:v>45914.6945675579</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="s"/>
+      <x:c r="G22" s="2" t="s"/>
+      <x:c r="H22" s="2" t="s"/>
+      <x:c r="I22" s="2" t="s"/>
+      <x:c r="J22" s="2" t="s"/>
+      <x:c r="K22" s="2" t="s"/>
+      <x:c r="L22" s="2" t="s"/>
+      <x:c r="M22" s="2" t="s"/>
+      <x:c r="N22" s="2" t="s"/>
+      <x:c r="O22" s="2" t="s"/>
+      <x:c r="P22" s="2" t="s"/>
+      <x:c r="Q22" s="2" t="s"/>
+      <x:c r="R22" s="2" t="s"/>
+      <x:c r="S22" s="2" t="s"/>
+      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35889.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35889.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>1210194</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد محمد عشري بخيت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ahmed Mohamed Ashry Bekhet</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210097</x:t>
   </x:si>
   <x:si>
@@ -42,6 +51,15 @@
     <x:t>Amira Ibrahim Ahmed Ibrahim Mohamed El-Garf</x:t>
   </x:si>
   <x:si>
+    <x:t>4220112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>انس علاء محمد ابراهيم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210206</x:t>
   </x:si>
   <x:si>
@@ -96,15 +114,6 @@
     <x:t>Salma Nasser Abdelwahab Elhosseiny</x:t>
   </x:si>
   <x:si>
-    <x:t>1220246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سيف الدين سامح عبدالرحمن صادق دكروري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Seifeldin Sameh Abdelrahman Dakroury</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210253</x:t>
   </x:si>
   <x:si>
@@ -123,6 +132,24 @@
     <x:t>Ezz Eldin Ahmed Saber Eltohary Selim</x:t>
   </x:si>
   <x:si>
+    <x:t>4220139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر احمد محمد على الشريف</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ahmed Mohamed Ali Alsherif</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220133</x:t>
+  </x:si>
+  <x:si>
+    <x:t>فاروق ضياء الدين فاروق السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Farouq Diaa Eldin Farouk ElSayed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210276</x:t>
   </x:si>
   <x:si>
@@ -130,6 +157,15 @@
   </x:si>
   <x:si>
     <x:t>Farida Ahmed Mohamed Moukhtar Mahmoud</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4220140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد ماهر محمد رفعت</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed Maher Mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>1210291</x:t>
@@ -335,7 +371,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +671,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T26"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -643,7 +679,7 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="32.580625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="30.270625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="55.420625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
@@ -726,7 +762,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45914.6878001505</x:v>
+        <x:v>45927.4147365741</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -758,7 +794,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45914.7007090278</x:v>
+        <x:v>45914.6878001505</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -790,7 +826,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45914.6949074884</x:v>
+        <x:v>45927.4698664699</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -822,7 +858,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.6896805903</x:v>
+        <x:v>45914.7007090278</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +890,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.6892113426</x:v>
+        <x:v>45914.6949074884</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +922,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.7002888079</x:v>
+        <x:v>45914.6896805903</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +954,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.6917645486</x:v>
+        <x:v>45914.6892113426</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +986,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.6953730324</x:v>
+        <x:v>45914.7002888079</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +1018,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6874175926</x:v>
+        <x:v>45914.6917645486</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1050,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6867231829</x:v>
+        <x:v>45914.6874175926</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1082,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.683959838</x:v>
+        <x:v>45914.6867231829</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1114,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45914.6844145486</x:v>
+        <x:v>45927.468065081</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1146,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1178,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45914.683959838</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1210,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45927.4254059028</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1242,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45914.6844145486</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1274,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1306,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1338,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1370,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1402,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6945675579</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1419,134 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45914.6835307523</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
+    </x:row>
+    <x:row r="24" spans="1:20">
+      <x:c r="A24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="E24" s="3">
+        <x:v>45914.6881958333</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="s"/>
+      <x:c r="G24" s="2" t="s"/>
+      <x:c r="H24" s="2" t="s"/>
+      <x:c r="I24" s="2" t="s"/>
+      <x:c r="J24" s="2" t="s"/>
+      <x:c r="K24" s="2" t="s"/>
+      <x:c r="L24" s="2" t="s"/>
+      <x:c r="M24" s="2" t="s"/>
+      <x:c r="N24" s="2" t="s"/>
+      <x:c r="O24" s="2" t="s"/>
+      <x:c r="P24" s="2" t="s"/>
+      <x:c r="Q24" s="2" t="s"/>
+      <x:c r="R24" s="2" t="s"/>
+      <x:c r="S24" s="2" t="s"/>
+      <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45921.9784559028</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
+    </x:row>
+    <x:row r="26" spans="1:20">
+      <x:c r="A26" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C26" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D26" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E26" s="3">
+        <x:v>45914.6945675579</x:v>
+      </x:c>
+      <x:c r="F26" s="2" t="s"/>
+      <x:c r="G26" s="2" t="s"/>
+      <x:c r="H26" s="2" t="s"/>
+      <x:c r="I26" s="2" t="s"/>
+      <x:c r="J26" s="2" t="s"/>
+      <x:c r="K26" s="2" t="s"/>
+      <x:c r="L26" s="2" t="s"/>
+      <x:c r="M26" s="2" t="s"/>
+      <x:c r="N26" s="2" t="s"/>
+      <x:c r="O26" s="2" t="s"/>
+      <x:c r="P26" s="2" t="s"/>
+      <x:c r="Q26" s="2" t="s"/>
+      <x:c r="R26" s="2" t="s"/>
+      <x:c r="S26" s="2" t="s"/>
+      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35889.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35889.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,15 +49,6 @@
   </x:si>
   <x:si>
     <x:t>Amira Ibrahim Ahmed Ibrahim Mohamed El-Garf</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>انس علاء محمد ابراهيم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Anas Alaa Mohamed  Ibrahim</x:t>
   </x:si>
   <x:si>
     <x:t>1210206</x:t>
@@ -371,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -671,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T26"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -826,7 +817,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4698664699</x:v>
+        <x:v>45914.7007090278</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -858,7 +849,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45914.7007090278</x:v>
+        <x:v>45914.6949074884</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -890,7 +881,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45914.6949074884</x:v>
+        <x:v>45914.6896805903</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -922,7 +913,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45914.6896805903</x:v>
+        <x:v>45914.6892113426</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -954,7 +945,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45914.6892113426</x:v>
+        <x:v>45914.7002888079</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -986,7 +977,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45914.7002888079</x:v>
+        <x:v>45914.6917645486</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1018,7 +1009,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45914.6917645486</x:v>
+        <x:v>45914.6874175926</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1050,7 +1041,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45914.6874175926</x:v>
+        <x:v>45914.6867231829</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1082,7 +1073,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45914.6867231829</x:v>
+        <x:v>45927.468065081</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1114,7 +1105,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.468065081</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1146,7 +1137,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45927.4714578704</x:v>
+        <x:v>45914.683959838</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1178,7 +1169,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45914.683959838</x:v>
+        <x:v>45927.4254059028</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1210,7 +1201,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45927.4254059028</x:v>
+        <x:v>45914.6844145486</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1242,7 +1233,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45914.6844145486</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1274,7 +1265,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1306,7 +1297,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1338,7 +1329,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1370,7 +1361,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1402,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1434,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1466,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1498,7 +1489,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6945675579</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1515,38 +1506,6 @@
       <x:c r="R25" s="2" t="s"/>
       <x:c r="S25" s="2" t="s"/>
       <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45914.6945675579</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35889.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35889.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Ezz Eldin Ahmed Saber Eltohary Selim</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>عمر احمد محمد على الشريف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Omar Ahmed Mohamed Ali Alsherif</x:t>
   </x:si>
   <x:si>
     <x:t>4220133</x:t>
@@ -362,7 +353,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -662,7 +653,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T25"/>
+  <x:dimension ref="A1:T24"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1073,7 +1064,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.468065081</x:v>
+        <x:v>45927.4714578704</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1105,7 +1096,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45927.4714578704</x:v>
+        <x:v>45914.683959838</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1137,7 +1128,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45914.683959838</x:v>
+        <x:v>45927.4254059028</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1169,7 +1160,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45927.4254059028</x:v>
+        <x:v>45914.6844145486</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1201,7 +1192,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45914.6844145486</x:v>
+        <x:v>45926.5716623032</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1233,7 +1224,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45926.5716623032</x:v>
+        <x:v>45914.6852450579</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1265,7 +1256,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45914.6852450579</x:v>
+        <x:v>45914.692825463</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1297,7 +1288,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45914.692825463</x:v>
+        <x:v>45914.6924736458</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1329,7 +1320,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45914.6924736458</x:v>
+        <x:v>45914.6900510764</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1361,7 +1352,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45914.6900510764</x:v>
+        <x:v>45914.6835307523</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1393,7 +1384,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6835307523</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1425,7 +1416,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1457,7 +1448,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6945675579</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1474,38 +1465,6 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45914.6945675579</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS454_Tutorial-35889.xlsx
+++ b/downloaded_files/CMPS454_Tutorial-35889.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -211,6 +211,15 @@
   </x:si>
   <x:si>
     <x:t>Menna Salah Mohamed Alawadly</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مهند طارق ابراهيم المحلاوى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohanad Tarek Ibrahim Elmahalawy</x:t>
   </x:si>
   <x:si>
     <x:t>1210330</x:t>
@@ -353,7 +362,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -653,7 +662,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T24"/>
+  <x:dimension ref="A1:T25"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1384,7 +1393,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45914.6881958333</x:v>
+        <x:v>45921.9196888542</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1416,7 +1425,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45921.9784559028</x:v>
+        <x:v>45914.6881958333</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1448,7 +1457,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45914.6945675579</x:v>
+        <x:v>45921.9784559028</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1465,6 +1474,38 @@
       <x:c r="R24" s="2" t="s"/>
       <x:c r="S24" s="2" t="s"/>
       <x:c r="T24" s="2" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:20">
+      <x:c r="A25" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="2" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C25" s="2" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="D25" s="2" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E25" s="3">
+        <x:v>45914.6945675579</x:v>
+      </x:c>
+      <x:c r="F25" s="2" t="s"/>
+      <x:c r="G25" s="2" t="s"/>
+      <x:c r="H25" s="2" t="s"/>
+      <x:c r="I25" s="2" t="s"/>
+      <x:c r="J25" s="2" t="s"/>
+      <x:c r="K25" s="2" t="s"/>
+      <x:c r="L25" s="2" t="s"/>
+      <x:c r="M25" s="2" t="s"/>
+      <x:c r="N25" s="2" t="s"/>
+      <x:c r="O25" s="2" t="s"/>
+      <x:c r="P25" s="2" t="s"/>
+      <x:c r="Q25" s="2" t="s"/>
+      <x:c r="R25" s="2" t="s"/>
+      <x:c r="S25" s="2" t="s"/>
+      <x:c r="T25" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
